--- a/inner/config/cfg_template.xlsx
+++ b/inner/config/cfg_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25740" windowHeight="10460" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="25740" windowHeight="10460" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="SUITI_62" sheetId="119" r:id="rId1"/>
@@ -16,129 +16,130 @@
     <sheet name="SUITI_68" sheetId="124" r:id="rId7"/>
     <sheet name="SUITI_69" sheetId="125" r:id="rId8"/>
     <sheet name="SUITI_70" sheetId="126" r:id="rId9"/>
-    <sheet name="SUITI_56" sheetId="109" r:id="rId10"/>
-    <sheet name="SUITI_57" sheetId="110" r:id="rId11"/>
-    <sheet name="SUITI_58" sheetId="111" r:id="rId12"/>
-    <sheet name="SUITI_59" sheetId="112" r:id="rId13"/>
-    <sheet name="SUITI_60" sheetId="113" r:id="rId14"/>
-    <sheet name="SUITI_61" sheetId="114" r:id="rId15"/>
-    <sheet name="SUITI_164" sheetId="115" r:id="rId16"/>
-    <sheet name="SUITI_165" sheetId="116" r:id="rId17"/>
-    <sheet name="SUITI_166" sheetId="117" r:id="rId18"/>
-    <sheet name="SUITI_167" sheetId="118" r:id="rId19"/>
-    <sheet name="QUAL_75" sheetId="108" r:id="rId20"/>
-    <sheet name="QUAL_74" sheetId="107" r:id="rId21"/>
-    <sheet name="QUAL_73" sheetId="106" r:id="rId22"/>
-    <sheet name="QUAL_72" sheetId="105" r:id="rId23"/>
-    <sheet name="QUAL_76" sheetId="74" r:id="rId24"/>
-    <sheet name="QUAL_77" sheetId="94" r:id="rId25"/>
-    <sheet name="QUAL_78" sheetId="75" r:id="rId26"/>
-    <sheet name="QUAL_79" sheetId="76" r:id="rId27"/>
-    <sheet name="QUAL_80" sheetId="95" r:id="rId28"/>
-    <sheet name="QUAL_81" sheetId="77" r:id="rId29"/>
-    <sheet name="QUAL_82" sheetId="78" r:id="rId30"/>
-    <sheet name="QUAL_83" sheetId="96" r:id="rId31"/>
-    <sheet name="QUAL_84" sheetId="79" r:id="rId32"/>
-    <sheet name="QUAL_85" sheetId="80" r:id="rId33"/>
-    <sheet name="QUAL_86" sheetId="97" r:id="rId34"/>
-    <sheet name="QUAL_87" sheetId="81" r:id="rId35"/>
-    <sheet name="QUAL_88" sheetId="82" r:id="rId36"/>
-    <sheet name="QUAL_89" sheetId="98" r:id="rId37"/>
-    <sheet name="QUAL_90" sheetId="83" r:id="rId38"/>
-    <sheet name="QUAL_91" sheetId="84" r:id="rId39"/>
-    <sheet name="QUAL_92" sheetId="99" r:id="rId40"/>
-    <sheet name="QUAL_93" sheetId="85" r:id="rId41"/>
-    <sheet name="QUAL_94" sheetId="86" r:id="rId42"/>
-    <sheet name="QUAL_95" sheetId="100" r:id="rId43"/>
-    <sheet name="QUAL_96" sheetId="87" r:id="rId44"/>
-    <sheet name="QUAL_97" sheetId="88" r:id="rId45"/>
-    <sheet name="QUAL_98" sheetId="101" r:id="rId46"/>
-    <sheet name="QUAL_99" sheetId="89" r:id="rId47"/>
-    <sheet name="QUAL_100" sheetId="90" r:id="rId48"/>
-    <sheet name="QUAL_101" sheetId="102" r:id="rId49"/>
-    <sheet name="QUAL_102" sheetId="91" r:id="rId50"/>
-    <sheet name="QUAL_103" sheetId="92" r:id="rId51"/>
-    <sheet name="QUAL_104" sheetId="103" r:id="rId52"/>
-    <sheet name="QUAL_105" sheetId="93" r:id="rId53"/>
-    <sheet name="JSBG_7_PH-(表层样PH分级)" sheetId="1" r:id="rId54"/>
-    <sheet name="JSBG_8_PH" sheetId="58" r:id="rId55"/>
-    <sheet name="JSBG_10_OM-(表层样OM分级)" sheetId="2" r:id="rId56"/>
-    <sheet name="JSBG_11_OM" sheetId="59" r:id="rId57"/>
-    <sheet name="JSBG_16_TN-(表层样TN分级)" sheetId="5" r:id="rId58"/>
-    <sheet name="JSBG_17_TN" sheetId="60" r:id="rId59"/>
-    <sheet name="JSBG_19_TP-(表层样TP分级)" sheetId="6" r:id="rId60"/>
-    <sheet name="JSBG_20_TP" sheetId="61" r:id="rId61"/>
-    <sheet name="JSBG_22_TK-(表层样TK分级)" sheetId="7" r:id="rId62"/>
-    <sheet name="JSBG_23_TK" sheetId="62" r:id="rId63"/>
-    <sheet name="JSBG_25_AP-(表层样AP分级)" sheetId="8" r:id="rId64"/>
-    <sheet name="JSBG_26_AP" sheetId="63" r:id="rId65"/>
-    <sheet name="JSBG_28_AK-(表层样AK分级)" sheetId="9" r:id="rId66"/>
-    <sheet name="JSBG_29_AK" sheetId="64" r:id="rId67"/>
-    <sheet name="JSBG_31_AS1-(表层样AS1分级)" sheetId="10" r:id="rId68"/>
-    <sheet name="JSBG_32_AS1" sheetId="65" r:id="rId69"/>
-    <sheet name="JSBG_34_AFE-(表层样AFE分级)" sheetId="11" r:id="rId70"/>
-    <sheet name="JSBG_35_AFE" sheetId="66" r:id="rId71"/>
-    <sheet name="JSBG_37_AMN-(表层样AMN分级)" sheetId="12" r:id="rId72"/>
-    <sheet name="JSBG_38_AMN" sheetId="67" r:id="rId73"/>
-    <sheet name="JSBG_40_ACU-(表层样ACU分级)" sheetId="13" r:id="rId74"/>
-    <sheet name="JSBG_41_ACU" sheetId="68" r:id="rId75"/>
-    <sheet name="JSBG_43_AZN-(表层样AZN分级)" sheetId="14" r:id="rId76"/>
-    <sheet name="JSBG_44_AZN" sheetId="69" r:id="rId77"/>
-    <sheet name="JSBG_46_AB-(表层样AB分级)" sheetId="4" r:id="rId78"/>
-    <sheet name="JSBG_47_AB" sheetId="70" r:id="rId79"/>
-    <sheet name="JSBG_49_AMO-(表层样AMO分级)" sheetId="15" r:id="rId80"/>
-    <sheet name="JSBG_50_AMO" sheetId="71" r:id="rId81"/>
-    <sheet name="JSBG_53_GZCHD-(表层样GZCHD分级)" sheetId="16" r:id="rId82"/>
-    <sheet name="JSBG_54_GZCHD" sheetId="72" r:id="rId83"/>
-    <sheet name="TRSX_111_PH-(利用类型pH面积分级)" sheetId="3" r:id="rId84"/>
-    <sheet name="TRSX_112_PH-(街道PH面积分级)" sheetId="18" r:id="rId85"/>
-    <sheet name="TRSX_113_PH-(土类PH面积分级)" sheetId="19" r:id="rId86"/>
-    <sheet name="TRSX_114_CEC-(利用类型ECE面积分级)" sheetId="20" r:id="rId87"/>
-    <sheet name="TRSX_115_CEC-(街道ECE面积分级)" sheetId="21" r:id="rId88"/>
-    <sheet name="TRSX_116_CEC-(土类ECE面积分级)" sheetId="22" r:id="rId89"/>
-    <sheet name="TRSX_117_TRRZPJZ-(利用类型容重面积分级)" sheetId="23" r:id="rId90"/>
-    <sheet name="TRSX_118_TRRZPJZ-(街道容重面积分级)" sheetId="24" r:id="rId91"/>
-    <sheet name="TRSX_119_TRRZPJZ-(土类容重面积分级)" sheetId="25" r:id="rId92"/>
-    <sheet name="TRSX_120_GZCHD" sheetId="26" r:id="rId93"/>
-    <sheet name="TRSX_121_GZCHD" sheetId="27" r:id="rId94"/>
-    <sheet name="TRSX_122_GZCHD" sheetId="28" r:id="rId95"/>
-    <sheet name="TRSX_123_TRZD" sheetId="29" r:id="rId96"/>
-    <sheet name="TRSX_124_TRZD" sheetId="30" r:id="rId97"/>
-    <sheet name="TRSX_125_TRZD" sheetId="31" r:id="rId98"/>
-    <sheet name="TRSX_126_TRSL" sheetId="32" r:id="rId99"/>
-    <sheet name="TRSX_127_TRSL" sheetId="33" r:id="rId100"/>
-    <sheet name="TRSX_128_TRSL" sheetId="34" r:id="rId101"/>
-    <sheet name="TRSX_129_TRFSL" sheetId="35" r:id="rId102"/>
-    <sheet name="TRSX_130_TRFSL" sheetId="36" r:id="rId103"/>
-    <sheet name="TRSX_131_TRFSL" sheetId="37" r:id="rId104"/>
-    <sheet name="TRSX_132_TRNL" sheetId="38" r:id="rId105"/>
-    <sheet name="TRSX_133_TRNL" sheetId="39" r:id="rId106"/>
-    <sheet name="TRSX_134_TRNL" sheetId="40" r:id="rId107"/>
-    <sheet name="TRSX_135_OM-(利用类型OM面积分级)" sheetId="17" r:id="rId108"/>
-    <sheet name="TRSX_136_OM" sheetId="41" r:id="rId109"/>
-    <sheet name="TRSX_137_OM" sheetId="42" r:id="rId110"/>
-    <sheet name="TRSX_138_TN" sheetId="43" r:id="rId111"/>
-    <sheet name="TRSX_139_TN" sheetId="44" r:id="rId112"/>
-    <sheet name="TRSX_140_TN" sheetId="45" r:id="rId113"/>
-    <sheet name="TRSX_141_TP" sheetId="46" r:id="rId114"/>
-    <sheet name="TRSX_142_TP" sheetId="47" r:id="rId115"/>
-    <sheet name="TRSX_143_TP" sheetId="48" r:id="rId116"/>
-    <sheet name="TRSX_144_TK" sheetId="49" r:id="rId117"/>
-    <sheet name="TRSX_145_TK" sheetId="50" r:id="rId118"/>
-    <sheet name="TRSX_146_TK" sheetId="51" r:id="rId119"/>
-    <sheet name="TRSX_147_AP" sheetId="52" r:id="rId120"/>
-    <sheet name="TRSX_148_AP" sheetId="53" r:id="rId121"/>
-    <sheet name="TRSX_149_AP" sheetId="54" r:id="rId122"/>
-    <sheet name="TRSX_150_AK" sheetId="55" r:id="rId123"/>
-    <sheet name="TRSX_151_AK" sheetId="56" r:id="rId124"/>
-    <sheet name="TRSX_152_AK" sheetId="57" r:id="rId125"/>
+    <sheet name="SUITI_71" sheetId="127" r:id="rId10"/>
+    <sheet name="SUITI_56" sheetId="109" r:id="rId11"/>
+    <sheet name="SUITI_57" sheetId="110" r:id="rId12"/>
+    <sheet name="SUITI_58" sheetId="111" r:id="rId13"/>
+    <sheet name="SUITI_59" sheetId="112" r:id="rId14"/>
+    <sheet name="SUITI_60" sheetId="113" r:id="rId15"/>
+    <sheet name="SUITI_61" sheetId="114" r:id="rId16"/>
+    <sheet name="SUITI_164" sheetId="115" r:id="rId17"/>
+    <sheet name="SUITI_165" sheetId="116" r:id="rId18"/>
+    <sheet name="SUITI_166" sheetId="117" r:id="rId19"/>
+    <sheet name="SUITI_167" sheetId="118" r:id="rId20"/>
+    <sheet name="QUAL_75" sheetId="108" r:id="rId21"/>
+    <sheet name="QUAL_74" sheetId="107" r:id="rId22"/>
+    <sheet name="QUAL_73" sheetId="106" r:id="rId23"/>
+    <sheet name="QUAL_72" sheetId="105" r:id="rId24"/>
+    <sheet name="QUAL_76" sheetId="74" r:id="rId25"/>
+    <sheet name="QUAL_77" sheetId="94" r:id="rId26"/>
+    <sheet name="QUAL_78" sheetId="75" r:id="rId27"/>
+    <sheet name="QUAL_79" sheetId="76" r:id="rId28"/>
+    <sheet name="QUAL_80" sheetId="95" r:id="rId29"/>
+    <sheet name="QUAL_81" sheetId="77" r:id="rId30"/>
+    <sheet name="QUAL_82" sheetId="78" r:id="rId31"/>
+    <sheet name="QUAL_83" sheetId="96" r:id="rId32"/>
+    <sheet name="QUAL_84" sheetId="79" r:id="rId33"/>
+    <sheet name="QUAL_85" sheetId="80" r:id="rId34"/>
+    <sheet name="QUAL_86" sheetId="97" r:id="rId35"/>
+    <sheet name="QUAL_87" sheetId="81" r:id="rId36"/>
+    <sheet name="QUAL_88" sheetId="82" r:id="rId37"/>
+    <sheet name="QUAL_89" sheetId="98" r:id="rId38"/>
+    <sheet name="QUAL_90" sheetId="83" r:id="rId39"/>
+    <sheet name="QUAL_91" sheetId="84" r:id="rId40"/>
+    <sheet name="QUAL_92" sheetId="99" r:id="rId41"/>
+    <sheet name="QUAL_93" sheetId="85" r:id="rId42"/>
+    <sheet name="QUAL_94" sheetId="86" r:id="rId43"/>
+    <sheet name="QUAL_95" sheetId="100" r:id="rId44"/>
+    <sheet name="QUAL_96" sheetId="87" r:id="rId45"/>
+    <sheet name="QUAL_97" sheetId="88" r:id="rId46"/>
+    <sheet name="QUAL_98" sheetId="101" r:id="rId47"/>
+    <sheet name="QUAL_99" sheetId="89" r:id="rId48"/>
+    <sheet name="QUAL_100" sheetId="90" r:id="rId49"/>
+    <sheet name="QUAL_101" sheetId="102" r:id="rId50"/>
+    <sheet name="QUAL_102" sheetId="91" r:id="rId51"/>
+    <sheet name="QUAL_103" sheetId="92" r:id="rId52"/>
+    <sheet name="QUAL_104" sheetId="103" r:id="rId53"/>
+    <sheet name="QUAL_105" sheetId="93" r:id="rId54"/>
+    <sheet name="JSBG_7_PH-(表层样PH分级)" sheetId="1" r:id="rId55"/>
+    <sheet name="JSBG_8_PH" sheetId="58" r:id="rId56"/>
+    <sheet name="JSBG_10_OM-(表层样OM分级)" sheetId="2" r:id="rId57"/>
+    <sheet name="JSBG_11_OM" sheetId="59" r:id="rId58"/>
+    <sheet name="JSBG_16_TN-(表层样TN分级)" sheetId="5" r:id="rId59"/>
+    <sheet name="JSBG_17_TN" sheetId="60" r:id="rId60"/>
+    <sheet name="JSBG_19_TP-(表层样TP分级)" sheetId="6" r:id="rId61"/>
+    <sheet name="JSBG_20_TP" sheetId="61" r:id="rId62"/>
+    <sheet name="JSBG_22_TK-(表层样TK分级)" sheetId="7" r:id="rId63"/>
+    <sheet name="JSBG_23_TK" sheetId="62" r:id="rId64"/>
+    <sheet name="JSBG_25_AP-(表层样AP分级)" sheetId="8" r:id="rId65"/>
+    <sheet name="JSBG_26_AP" sheetId="63" r:id="rId66"/>
+    <sheet name="JSBG_28_AK-(表层样AK分级)" sheetId="9" r:id="rId67"/>
+    <sheet name="JSBG_29_AK" sheetId="64" r:id="rId68"/>
+    <sheet name="JSBG_31_AS1-(表层样AS1分级)" sheetId="10" r:id="rId69"/>
+    <sheet name="JSBG_32_AS1" sheetId="65" r:id="rId70"/>
+    <sheet name="JSBG_34_AFE-(表层样AFE分级)" sheetId="11" r:id="rId71"/>
+    <sheet name="JSBG_35_AFE" sheetId="66" r:id="rId72"/>
+    <sheet name="JSBG_37_AMN-(表层样AMN分级)" sheetId="12" r:id="rId73"/>
+    <sheet name="JSBG_38_AMN" sheetId="67" r:id="rId74"/>
+    <sheet name="JSBG_40_ACU-(表层样ACU分级)" sheetId="13" r:id="rId75"/>
+    <sheet name="JSBG_41_ACU" sheetId="68" r:id="rId76"/>
+    <sheet name="JSBG_43_AZN-(表层样AZN分级)" sheetId="14" r:id="rId77"/>
+    <sheet name="JSBG_44_AZN" sheetId="69" r:id="rId78"/>
+    <sheet name="JSBG_46_AB-(表层样AB分级)" sheetId="4" r:id="rId79"/>
+    <sheet name="JSBG_47_AB" sheetId="70" r:id="rId80"/>
+    <sheet name="JSBG_49_AMO-(表层样AMO分级)" sheetId="15" r:id="rId81"/>
+    <sheet name="JSBG_50_AMO" sheetId="71" r:id="rId82"/>
+    <sheet name="JSBG_53_GZCHD-(表层样GZCHD分级)" sheetId="16" r:id="rId83"/>
+    <sheet name="JSBG_54_GZCHD" sheetId="72" r:id="rId84"/>
+    <sheet name="TRSX_111_PH-(利用类型pH面积分级)" sheetId="3" r:id="rId85"/>
+    <sheet name="TRSX_112_PH-(街道PH面积分级)" sheetId="18" r:id="rId86"/>
+    <sheet name="TRSX_113_PH-(土类PH面积分级)" sheetId="19" r:id="rId87"/>
+    <sheet name="TRSX_114_CEC-(利用类型ECE面积分级)" sheetId="20" r:id="rId88"/>
+    <sheet name="TRSX_115_CEC-(街道ECE面积分级)" sheetId="21" r:id="rId89"/>
+    <sheet name="TRSX_116_CEC-(土类ECE面积分级)" sheetId="22" r:id="rId90"/>
+    <sheet name="TRSX_117_TRRZPJZ-(利用类型容重面积分级)" sheetId="23" r:id="rId91"/>
+    <sheet name="TRSX_118_TRRZPJZ-(街道容重面积分级)" sheetId="24" r:id="rId92"/>
+    <sheet name="TRSX_119_TRRZPJZ-(土类容重面积分级)" sheetId="25" r:id="rId93"/>
+    <sheet name="TRSX_120_GZCHD" sheetId="26" r:id="rId94"/>
+    <sheet name="TRSX_121_GZCHD" sheetId="27" r:id="rId95"/>
+    <sheet name="TRSX_122_GZCHD" sheetId="28" r:id="rId96"/>
+    <sheet name="TRSX_123_TRZD" sheetId="29" r:id="rId97"/>
+    <sheet name="TRSX_124_TRZD" sheetId="30" r:id="rId98"/>
+    <sheet name="TRSX_125_TRZD" sheetId="31" r:id="rId99"/>
+    <sheet name="TRSX_126_TRSL" sheetId="32" r:id="rId100"/>
+    <sheet name="TRSX_127_TRSL" sheetId="33" r:id="rId101"/>
+    <sheet name="TRSX_128_TRSL" sheetId="34" r:id="rId102"/>
+    <sheet name="TRSX_129_TRFSL" sheetId="35" r:id="rId103"/>
+    <sheet name="TRSX_130_TRFSL" sheetId="36" r:id="rId104"/>
+    <sheet name="TRSX_131_TRFSL" sheetId="37" r:id="rId105"/>
+    <sheet name="TRSX_132_TRNL" sheetId="38" r:id="rId106"/>
+    <sheet name="TRSX_133_TRNL" sheetId="39" r:id="rId107"/>
+    <sheet name="TRSX_134_TRNL" sheetId="40" r:id="rId108"/>
+    <sheet name="TRSX_135_OM-(利用类型OM面积分级)" sheetId="17" r:id="rId109"/>
+    <sheet name="TRSX_136_OM" sheetId="41" r:id="rId110"/>
+    <sheet name="TRSX_137_OM" sheetId="42" r:id="rId111"/>
+    <sheet name="TRSX_138_TN" sheetId="43" r:id="rId112"/>
+    <sheet name="TRSX_139_TN" sheetId="44" r:id="rId113"/>
+    <sheet name="TRSX_140_TN" sheetId="45" r:id="rId114"/>
+    <sheet name="TRSX_141_TP" sheetId="46" r:id="rId115"/>
+    <sheet name="TRSX_142_TP" sheetId="47" r:id="rId116"/>
+    <sheet name="TRSX_143_TP" sheetId="48" r:id="rId117"/>
+    <sheet name="TRSX_144_TK" sheetId="49" r:id="rId118"/>
+    <sheet name="TRSX_145_TK" sheetId="50" r:id="rId119"/>
+    <sheet name="TRSX_146_TK" sheetId="51" r:id="rId120"/>
+    <sheet name="TRSX_147_AP" sheetId="52" r:id="rId121"/>
+    <sheet name="TRSX_148_AP" sheetId="53" r:id="rId122"/>
+    <sheet name="TRSX_149_AP" sheetId="54" r:id="rId123"/>
+    <sheet name="TRSX_150_AK" sheetId="55" r:id="rId124"/>
+    <sheet name="TRSX_151_AK" sheetId="56" r:id="rId125"/>
+    <sheet name="TRSX_152_AK" sheetId="57" r:id="rId126"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="392">
   <si>
     <t>XX县适宜类评价面积表</t>
   </si>
@@ -260,6 +261,15 @@
   </si>
   <si>
     <t>XX县草地-适宜类面积错配表</t>
+  </si>
+  <si>
+    <t>XX县耕地后备资源面积表</t>
+  </si>
+  <si>
+    <t>一级宜耕地面积</t>
+  </si>
+  <si>
+    <t>二级宜耕地面积</t>
   </si>
   <si>
     <t>XX县各乡镇（街道）土壤坡度等级面积分布表</t>
@@ -2876,6 +2886,762 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="8.65384615384615" customWidth="1"/>
+    <col min="2" max="3" width="15.7692307692308" customWidth="1"/>
+    <col min="4" max="4" width="5.53846153846154" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="32"/>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2886,7 +3652,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2903,7 +3669,7 @@
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="35" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
@@ -2918,22 +3684,22 @@
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I3" s="31"/>
     </row>
@@ -2949,7 +3715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -2962,7 +3728,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2975,37 +3741,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -3018,20 +3784,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3041,40 +3807,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -3087,392 +3853,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3482,91 +3876,41 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>362</v>
+        <v>199</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>363</v>
+        <v>200</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>364</v>
+        <v>201</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+        <v>202</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3578,7 +3922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -3591,7 +3935,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3604,37 +3948,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>362</v>
+        <v>199</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>363</v>
+        <v>200</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>364</v>
+        <v>201</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>365</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3647,7 +3991,421 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I3"/>
@@ -3660,7 +4418,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3677,7 +4435,7 @@
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="35" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
@@ -3692,22 +4450,22 @@
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I3" s="31"/>
     </row>
@@ -3723,20 +4481,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="A1" sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3746,40 +4504,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>361</v>
+        <v>216</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -3792,7 +4550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -3805,7 +4563,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3815,40 +4573,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>369</v>
+        <v>225</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>196</v>
+        <v>385</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>197</v>
+        <v>386</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>198</v>
+        <v>381</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>199</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -3861,7 +4619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -3874,7 +4632,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3887,37 +4645,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>369</v>
+        <v>225</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>196</v>
+        <v>385</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>197</v>
+        <v>386</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>198</v>
+        <v>381</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>199</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -3930,7 +4688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -3943,7 +4701,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3953,40 +4711,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>369</v>
+        <v>225</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>196</v>
+        <v>385</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>197</v>
+        <v>386</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>198</v>
+        <v>381</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>199</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -3999,7 +4757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -4012,7 +4770,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4022,40 +4780,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -4068,7 +4826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -4081,7 +4839,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4094,37 +4852,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -4137,20 +4895,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4160,40 +4918,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -4206,214 +4964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I3"/>
@@ -4426,7 +4977,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4443,7 +4994,7 @@
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="35" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
@@ -4458,22 +5009,22 @@
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I3" s="31"/>
     </row>
@@ -4489,421 +5040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I3"/>
@@ -4916,7 +5053,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4933,7 +5070,7 @@
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="35" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
@@ -4948,22 +5085,22 @@
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I3" s="31"/>
     </row>
@@ -4979,7 +5116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I3"/>
@@ -4992,7 +5129,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5009,7 +5146,7 @@
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="35" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
@@ -5024,22 +5161,22 @@
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I3" s="31"/>
     </row>
@@ -5055,7 +5192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I3"/>
@@ -5068,7 +5205,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5085,7 +5222,7 @@
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="35" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
@@ -5100,22 +5237,22 @@
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I3" s="31"/>
     </row>
@@ -5131,7 +5268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I3"/>
@@ -5144,7 +5281,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5161,7 +5298,7 @@
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="35" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
@@ -5176,22 +5313,22 @@
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I3" s="31"/>
     </row>
@@ -5207,7 +5344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I3"/>
@@ -5220,7 +5357,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5237,7 +5374,7 @@
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="35" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
@@ -5252,22 +5389,22 @@
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I3" s="31"/>
     </row>
@@ -5283,7 +5420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I3"/>
@@ -5296,7 +5433,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5313,7 +5450,7 @@
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="35" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
@@ -5328,22 +5465,22 @@
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I3" s="31"/>
     </row>
@@ -5354,22 +5491,6 @@
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="A2:B3"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
-  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -5462,6 +5583,22 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5479,7 +5616,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5491,16 +5628,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5524,7 +5661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M3"/>
@@ -5537,7 +5674,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5558,7 +5695,7 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="24" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
@@ -5577,34 +5714,34 @@
       <c r="A3" s="26"/>
       <c r="B3" s="27"/>
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M3" s="31"/>
     </row>
@@ -5620,7 +5757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C2"/>
@@ -5638,7 +5775,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5648,10 +5785,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -5663,7 +5800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F7"/>
@@ -5676,7 +5813,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5686,22 +5823,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5726,22 +5863,22 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5773,7 +5910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -5789,7 +5926,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -5809,7 +5946,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -5826,7 +5963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E7"/>
@@ -5845,7 +5982,7 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5857,16 +5994,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5913,7 +6050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -5926,7 +6063,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5944,7 +6081,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -5960,7 +6097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -5973,7 +6110,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -5993,7 +6130,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -6010,7 +6147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E7"/>
@@ -6029,7 +6166,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6041,16 +6178,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6097,63 +6234,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2"/>
@@ -6234,6 +6321,56 @@
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6244,7 +6381,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -6264,7 +6401,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -6281,7 +6418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E7"/>
@@ -6294,7 +6431,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6306,16 +6443,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6362,7 +6499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -6375,7 +6512,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6393,7 +6530,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6409,7 +6546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -6422,7 +6559,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -6442,7 +6579,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -6459,7 +6596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E7"/>
@@ -6472,7 +6609,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6484,16 +6621,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6540,7 +6677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -6553,7 +6690,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6571,7 +6708,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6587,7 +6724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -6600,7 +6737,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -6620,7 +6757,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -6637,7 +6774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E7"/>
@@ -6650,7 +6787,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6662,16 +6799,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6718,7 +6855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -6731,7 +6868,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6749,7 +6886,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6759,56 +6896,6 @@
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6884,6 +6971,56 @@
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6894,7 +7031,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6906,16 +7043,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6962,7 +7099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -6975,7 +7112,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6993,7 +7130,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -7009,7 +7146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -7022,7 +7159,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -7042,7 +7179,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -7059,7 +7196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E7"/>
@@ -7072,7 +7209,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7084,16 +7221,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7140,7 +7277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -7153,7 +7290,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7171,7 +7308,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -7187,7 +7324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -7200,7 +7337,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -7220,7 +7357,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -7237,7 +7374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E7"/>
@@ -7250,7 +7387,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7262,16 +7399,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7318,7 +7455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -7331,7 +7468,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7349,7 +7486,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -7365,7 +7502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -7378,7 +7515,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -7398,7 +7535,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -7409,87 +7546,6 @@
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -7856,17 +7912,17 @@
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7874,117 +7930,20 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8031,13 +7990,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -8062,7 +8021,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -8078,7 +8037,185 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -8096,7 +8233,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -8106,30 +8243,30 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="10" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -8138,7 +8275,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="14" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B4" s="15" t="str">
         <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
@@ -8151,7 +8288,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="14" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B5" s="15" t="str">
         <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
@@ -8184,7 +8321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -8197,7 +8334,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8210,19 +8347,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8258,7 +8395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -8277,7 +8414,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -8287,30 +8424,30 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="14" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -8319,7 +8456,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="14" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B4" s="15" t="str">
         <f t="shared" ref="B4:B6" si="0">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
@@ -8332,7 +8469,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="14" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B5" s="15" t="str">
         <f t="shared" si="0"/>
@@ -8365,7 +8502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -8378,7 +8515,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8391,19 +8528,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8439,7 +8576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -8452,7 +8589,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8462,47 +8599,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -8512,7 +8649,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -8539,45 +8676,118 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>200</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" ht="31" spans="1:6">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8613,80 +8823,107 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
-  <sheetData>
-    <row r="1" spans="1:7">
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -8699,7 +8936,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8707,124 +8944,24 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
     <row r="2" ht="31" spans="1:6">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8868,7 +9005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -8881,7 +9018,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8891,47 +9028,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -8941,7 +9078,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -8968,7 +9105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -8981,7 +9118,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8994,19 +9131,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9042,7 +9179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -9055,7 +9192,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9065,47 +9202,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -9115,7 +9252,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -9142,7 +9279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -9155,7 +9292,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9168,19 +9305,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9216,7 +9353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -9229,7 +9366,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9239,47 +9376,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -9289,7 +9426,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -9316,7 +9453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -9329,7 +9466,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9342,19 +9479,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9390,7 +9527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -9403,7 +9540,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9413,47 +9550,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -9463,7 +9600,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -9490,45 +9627,118 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" ht="31" spans="1:6">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9564,93 +9774,120 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
-  <sheetData>
-    <row r="1" spans="1:7">
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>247</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9658,124 +9895,24 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
     <row r="2" ht="31" spans="1:6">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9811,7 +9948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -9824,7 +9961,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9834,47 +9971,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -9884,7 +10021,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -9911,7 +10048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -9924,7 +10061,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9937,19 +10074,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9985,7 +10122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -9998,7 +10135,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10008,47 +10145,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -10058,7 +10195,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -10085,7 +10222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -10098,7 +10235,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10111,19 +10248,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10159,7 +10296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -10172,7 +10309,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10182,47 +10319,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -10232,7 +10369,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -10259,7 +10396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -10272,7 +10409,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10285,19 +10422,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10333,7 +10470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -10346,7 +10483,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10356,47 +10493,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -10406,7 +10543,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -10433,45 +10570,118 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>277</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" ht="31" spans="1:6">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10507,93 +10717,120 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
-  <sheetData>
-    <row r="1" spans="1:7">
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>286</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10601,124 +10838,24 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
     <row r="2" ht="31" spans="1:6">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10754,7 +10891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -10767,7 +10904,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10777,47 +10914,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -10827,7 +10964,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -10854,7 +10991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -10870,7 +11007,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10883,19 +11020,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10939,7 +11076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -10958,7 +11095,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10968,40 +11105,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -11014,7 +11151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -11027,7 +11164,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11040,37 +11177,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -11083,7 +11220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -11096,7 +11233,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11106,40 +11243,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -11152,7 +11289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -11172,7 +11309,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11182,40 +11319,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -11228,7 +11365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -11241,7 +11378,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11254,106 +11391,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>315</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -11445,6 +11513,75 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -11457,7 +11594,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11467,40 +11604,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" ht="61" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -11513,7 +11650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -11526,7 +11663,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11539,37 +11676,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" ht="61" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -11582,7 +11719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -11595,7 +11732,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11605,40 +11742,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" ht="61" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -11651,7 +11788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -11664,7 +11801,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11674,40 +11811,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -11720,7 +11857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -11733,7 +11870,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11746,37 +11883,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -11789,7 +11926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -11802,7 +11939,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11812,40 +11949,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -11858,7 +11995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:G8"/>
@@ -11871,7 +12008,7 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -11882,25 +12019,25 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -11967,7 +12104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:G3"/>
@@ -11980,7 +12117,7 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -11994,22 +12131,22 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -12021,7 +12158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:G3"/>
@@ -12034,7 +12171,7 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -12045,25 +12182,25 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -12073,73 +12210,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/inner/config/cfg_template.xlsx
+++ b/inner/config/cfg_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25740" windowHeight="10460" firstSheet="5" activeTab="9"/>
+    <workbookView windowWidth="25740" windowHeight="10460" firstSheet="13" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="SUITI_62" sheetId="119" r:id="rId1"/>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="394">
   <si>
     <t>XX县适宜类评价面积表</t>
   </si>
@@ -483,6 +483,12 @@
   </si>
   <si>
     <t>r5</t>
+  </si>
+  <si>
+    <t>XX县各乡镇（街道）限制因素评级表</t>
+  </si>
+  <si>
+    <t>限制因素评价等级</t>
   </si>
   <si>
     <t>XX县各乡镇（街道）耕地粮食生产潜能表</t>
@@ -2205,9 +2211,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2217,13 +2220,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2888,7 +2894,7 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -2954,7 +2960,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2964,40 +2970,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -3023,7 +3029,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3036,37 +3042,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -3092,7 +3098,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3102,40 +3108,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -3161,7 +3167,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3170,34 +3176,34 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -3223,7 +3229,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3235,31 +3241,31 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -3285,7 +3291,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3294,34 +3300,34 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -3347,7 +3353,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3356,34 +3362,34 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -3409,7 +3415,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3421,31 +3427,31 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -3471,7 +3477,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3480,34 +3486,34 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -3533,7 +3539,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3543,40 +3549,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3664,25 +3670,25 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="39"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="2" t="s">
         <v>45</v>
       </c>
@@ -3728,7 +3734,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3741,37 +3747,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -3797,7 +3803,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3807,40 +3813,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -3866,7 +3872,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3876,40 +3882,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3935,7 +3941,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3948,37 +3954,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4004,7 +4010,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4014,40 +4020,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4073,7 +4079,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4083,40 +4089,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -4142,7 +4148,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4155,37 +4161,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -4211,7 +4217,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4221,40 +4227,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -4280,7 +4286,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4290,40 +4296,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -4349,7 +4355,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4362,37 +4368,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -4430,25 +4436,25 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="39"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="2" t="s">
         <v>53</v>
       </c>
@@ -4494,7 +4500,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4504,40 +4510,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -4563,7 +4569,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4573,40 +4579,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -4632,7 +4638,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4645,37 +4651,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -4701,7 +4707,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4711,40 +4717,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -4770,7 +4776,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4780,40 +4786,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -4839,7 +4845,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4852,37 +4858,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -4908,7 +4914,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4918,40 +4924,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -4989,25 +4995,25 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="39"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="2" t="s">
         <v>61</v>
       </c>
@@ -5065,25 +5071,25 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="39"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="2" t="s">
         <v>69</v>
       </c>
@@ -5141,25 +5147,25 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="39"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="2" t="s">
         <v>77</v>
       </c>
@@ -5217,25 +5223,25 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="39"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="2" t="s">
         <v>85</v>
       </c>
@@ -5293,25 +5299,25 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="39"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="2" t="s">
         <v>93</v>
       </c>
@@ -5369,25 +5375,25 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="39"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="2" t="s">
         <v>101</v>
       </c>
@@ -5445,25 +5451,25 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="39"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="2" t="s">
         <v>108</v>
       </c>
@@ -5533,14 +5539,14 @@
         <v>12</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="39"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
@@ -5583,14 +5589,74 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
-  <sheetData/>
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="10.2307692307692" customWidth="1"/>
+    <col min="2" max="2" width="7.30769230769231" customWidth="1"/>
+    <col min="3" max="3" width="10.4615384615385" customWidth="1"/>
+    <col min="4" max="4" width="15.6153846153846" customWidth="1"/>
+    <col min="5" max="5" width="10.6923076923077" customWidth="1"/>
+    <col min="6" max="6" width="13.7692307692308" customWidth="1"/>
+    <col min="7" max="7" width="11.2307692307692" customWidth="1"/>
+    <col min="8" max="8" width="11.0769230769231" customWidth="1"/>
+    <col min="9" max="9" width="8.92307692307692" customWidth="1"/>
+    <col min="10" max="10" width="15.0769230769231" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="37"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="36"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -5616,7 +5682,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5628,16 +5694,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5674,7 +5740,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5695,7 +5761,7 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
@@ -5714,34 +5780,34 @@
       <c r="A3" s="26"/>
       <c r="B3" s="27"/>
       <c r="C3" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M3" s="31"/>
     </row>
@@ -5775,7 +5841,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5785,10 +5851,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -5813,7 +5879,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5823,22 +5889,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5863,22 +5929,22 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5926,7 +5992,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -5946,7 +6012,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -5982,7 +6048,7 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5994,16 +6060,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6063,7 +6129,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6081,7 +6147,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6110,7 +6176,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -6130,7 +6196,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -6166,7 +6232,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6178,16 +6244,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6270,22 +6336,22 @@
       <c r="A2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="39"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="31" spans="1:9">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="52" t="s">
         <v>13</v>
       </c>
@@ -6334,7 +6400,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6352,7 +6418,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6381,7 +6447,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -6401,7 +6467,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -6431,7 +6497,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6443,16 +6509,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6512,7 +6578,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6530,7 +6596,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6559,7 +6625,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -6579,7 +6645,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -6609,7 +6675,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6621,16 +6687,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6690,7 +6756,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6708,7 +6774,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6737,7 +6803,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -6757,7 +6823,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -6787,7 +6853,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6799,16 +6865,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6868,7 +6934,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6886,7 +6952,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6929,12 +6995,12 @@
         <v>20</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="39"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="37"/>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
@@ -6981,7 +7047,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -7001,7 +7067,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -7031,7 +7097,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7043,16 +7109,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7112,7 +7178,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7130,7 +7196,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -7159,7 +7225,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -7179,7 +7245,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -7209,7 +7275,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7221,16 +7287,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7290,7 +7356,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7308,7 +7374,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -7337,7 +7403,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -7357,7 +7423,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -7387,7 +7453,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7399,16 +7465,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7468,7 +7534,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7486,7 +7552,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -7515,7 +7581,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -7535,7 +7601,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -7579,7 +7645,7 @@
       <c r="A2" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
@@ -7922,7 +7988,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7934,16 +8000,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8003,7 +8069,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8021,7 +8087,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -8050,7 +8116,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -8070,7 +8136,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -8100,7 +8166,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8112,16 +8178,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8181,7 +8247,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8199,7 +8265,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -8233,7 +8299,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -8243,30 +8309,30 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -8275,7 +8341,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B4" s="15" t="str">
         <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
@@ -8288,7 +8354,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="14" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B5" s="15" t="str">
         <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
@@ -8334,7 +8400,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8347,19 +8413,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8414,7 +8480,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -8424,30 +8490,30 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="14" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -8456,7 +8522,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B4" s="15" t="str">
         <f t="shared" ref="B4:B6" si="0">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
@@ -8469,7 +8535,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="14" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B5" s="15" t="str">
         <f t="shared" si="0"/>
@@ -8515,7 +8581,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8528,19 +8594,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8589,7 +8655,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8599,47 +8665,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -8649,7 +8715,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -8762,7 +8828,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8775,19 +8841,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8836,7 +8902,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8846,47 +8912,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -8896,7 +8962,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -8936,7 +9002,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8949,19 +9015,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9018,7 +9084,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9028,47 +9094,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -9078,7 +9144,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -9118,7 +9184,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9131,19 +9197,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9192,7 +9258,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9202,47 +9268,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -9252,7 +9318,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -9292,7 +9358,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9305,19 +9371,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9366,7 +9432,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9376,47 +9442,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -9426,7 +9492,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -9466,7 +9532,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9479,19 +9545,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9540,7 +9606,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9550,47 +9616,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -9600,7 +9666,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -9713,7 +9779,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9726,19 +9792,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9787,7 +9853,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9797,47 +9863,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -9847,7 +9913,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -9887,7 +9953,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9900,19 +9966,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9961,7 +10027,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9971,47 +10037,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -10021,7 +10087,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -10061,7 +10127,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10074,19 +10140,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10135,7 +10201,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10145,47 +10211,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -10195,7 +10261,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -10235,7 +10301,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10248,19 +10314,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10309,7 +10375,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10319,47 +10385,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -10369,7 +10435,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -10409,7 +10475,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10422,19 +10488,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10483,7 +10549,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10493,47 +10559,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -10543,7 +10609,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -10656,7 +10722,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10669,19 +10735,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10730,7 +10796,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10740,47 +10806,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -10790,7 +10856,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -10830,7 +10896,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10843,19 +10909,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10904,7 +10970,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10914,47 +10980,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -10964,7 +11030,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -11007,7 +11073,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11020,19 +11086,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -11095,7 +11161,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11105,40 +11171,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -11164,7 +11230,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11177,37 +11243,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -11233,7 +11299,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11243,40 +11309,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -11309,7 +11375,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11319,40 +11385,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -11378,7 +11444,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11391,37 +11457,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -11520,7 +11586,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11530,40 +11596,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -11594,7 +11660,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11604,40 +11670,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" ht="61" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -11663,7 +11729,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11676,37 +11742,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" ht="61" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -11732,7 +11798,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11742,40 +11808,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" ht="61" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -11801,7 +11867,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11811,40 +11877,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -11870,7 +11936,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11883,37 +11949,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -11939,7 +12005,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11949,40 +12015,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -12008,7 +12074,7 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -12019,25 +12085,25 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -12117,7 +12183,7 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -12131,22 +12197,22 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -12171,7 +12237,7 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -12182,25 +12248,25 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/inner/config/cfg_template.xlsx
+++ b/inner/config/cfg_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25740" windowHeight="10460" firstSheet="13" activeTab="19"/>
+    <workbookView windowWidth="25740" windowHeight="10460" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SUITI_62" sheetId="119" r:id="rId1"/>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="395">
   <si>
     <t>XX县适宜类评价面积表</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>草地</t>
+  </si>
+  <si>
+    <t>其他</t>
   </si>
   <si>
     <t>XX县耕地-适宜类面积错配表</t>
@@ -1338,7 +1341,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1376,6 +1379,14 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1981,16 +1992,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1999,119 +2007,122 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2253,6 +2264,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2268,10 +2291,13 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2834,25 +2860,25 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="58" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2863,22 +2889,22 @@
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="47"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2907,7 +2933,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -2928,10 +2954,10 @@
     <row r="3" spans="1:4">
       <c r="A3" s="32"/>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -2960,7 +2986,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2970,40 +2996,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3029,7 +3055,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3042,37 +3068,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3098,7 +3124,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3108,40 +3134,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3167,7 +3193,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3176,34 +3202,34 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -3229,7 +3255,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3241,31 +3267,31 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -3291,7 +3317,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3300,34 +3326,34 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -3353,7 +3379,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3362,34 +3388,34 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -3415,7 +3441,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3427,31 +3453,31 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -3477,7 +3503,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3486,34 +3512,34 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -3539,7 +3565,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3549,40 +3575,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3658,7 +3684,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3675,7 +3701,7 @@
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -3690,22 +3716,22 @@
       <c r="A3" s="39"/>
       <c r="B3" s="36"/>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I3" s="31"/>
     </row>
@@ -3734,7 +3760,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3747,37 +3773,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -3803,7 +3829,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3813,40 +3839,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -3872,7 +3898,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3882,40 +3908,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3941,7 +3967,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3954,37 +3980,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -4010,7 +4036,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4020,40 +4046,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -4079,7 +4105,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4089,40 +4115,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -4148,7 +4174,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4161,37 +4187,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -4217,7 +4243,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4227,40 +4253,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -4286,7 +4312,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4296,40 +4322,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -4355,7 +4381,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4368,37 +4394,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -4424,7 +4450,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4441,7 +4467,7 @@
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -4456,22 +4482,22 @@
       <c r="A3" s="39"/>
       <c r="B3" s="36"/>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I3" s="31"/>
     </row>
@@ -4500,7 +4526,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4510,40 +4536,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -4569,7 +4595,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4579,40 +4605,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -4638,7 +4664,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4651,37 +4677,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -4707,7 +4733,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4717,40 +4743,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -4776,7 +4802,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4786,40 +4812,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -4845,7 +4871,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4858,37 +4884,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -4914,7 +4940,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4924,40 +4950,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -4983,7 +5009,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5000,7 +5026,7 @@
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -5015,22 +5041,22 @@
       <c r="A3" s="39"/>
       <c r="B3" s="36"/>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I3" s="31"/>
     </row>
@@ -5059,7 +5085,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5076,7 +5102,7 @@
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -5091,22 +5117,22 @@
       <c r="A3" s="39"/>
       <c r="B3" s="36"/>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I3" s="31"/>
     </row>
@@ -5135,7 +5161,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5152,7 +5178,7 @@
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -5167,22 +5193,22 @@
       <c r="A3" s="39"/>
       <c r="B3" s="36"/>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I3" s="31"/>
     </row>
@@ -5211,7 +5237,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5228,7 +5254,7 @@
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -5243,22 +5269,22 @@
       <c r="A3" s="39"/>
       <c r="B3" s="36"/>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I3" s="31"/>
     </row>
@@ -5287,7 +5313,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5304,7 +5330,7 @@
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -5319,22 +5345,22 @@
       <c r="A3" s="39"/>
       <c r="B3" s="36"/>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I3" s="31"/>
     </row>
@@ -5363,7 +5389,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5380,7 +5406,7 @@
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="34" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -5395,22 +5421,22 @@
       <c r="A3" s="39"/>
       <c r="B3" s="36"/>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I3" s="31"/>
     </row>
@@ -5439,7 +5465,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5456,7 +5482,7 @@
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="34" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -5471,22 +5497,22 @@
       <c r="A3" s="39"/>
       <c r="B3" s="36"/>
       <c r="C3" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I3" s="31"/>
     </row>
@@ -5554,22 +5580,22 @@
     <row r="3" ht="31" spans="1:9">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="57" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2"/>
@@ -5591,8 +5617,8 @@
   <sheetPr/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2"/>
@@ -5611,7 +5637,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5628,7 +5654,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -5682,7 +5708,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5694,16 +5720,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5740,7 +5766,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5761,7 +5787,7 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
@@ -5780,34 +5806,34 @@
       <c r="A3" s="26"/>
       <c r="B3" s="27"/>
       <c r="C3" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M3" s="31"/>
     </row>
@@ -5841,7 +5867,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5851,10 +5877,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -5879,7 +5905,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5889,22 +5915,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5929,22 +5955,22 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5992,7 +6018,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -6012,7 +6038,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -6048,7 +6074,7 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6060,16 +6086,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6129,7 +6155,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6147,7 +6173,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6176,7 +6202,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -6196,7 +6222,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -6232,7 +6258,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6244,16 +6270,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6352,22 +6378,22 @@
     <row r="3" ht="31" spans="1:9">
       <c r="A3" s="39"/>
       <c r="B3" s="36"/>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="57" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="2"/>
@@ -6400,7 +6426,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6418,7 +6444,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6447,7 +6473,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -6467,7 +6493,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -6497,7 +6523,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6509,16 +6535,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6578,7 +6604,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6596,7 +6622,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6625,7 +6651,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -6645,7 +6671,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -6675,7 +6701,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6687,16 +6713,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6756,7 +6782,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6774,7 +6800,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6803,7 +6829,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -6823,7 +6849,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -6853,7 +6879,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6865,16 +6891,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6934,7 +6960,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6952,7 +6978,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -7047,7 +7073,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -7067,7 +7093,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -7097,7 +7123,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7109,16 +7135,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7178,7 +7204,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7196,7 +7222,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -7225,7 +7251,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -7245,7 +7271,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -7275,7 +7301,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7287,16 +7313,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7356,7 +7382,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7374,7 +7400,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -7403,7 +7429,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -7423,7 +7449,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -7453,7 +7479,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7465,16 +7491,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7534,7 +7560,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7552,7 +7578,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -7581,7 +7607,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -7601,7 +7627,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -7621,13 +7647,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -7674,7 +7700,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="43"/>
-      <c r="E3" s="48"/>
+      <c r="E3" s="52"/>
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
       <c r="H3" s="43"/>
@@ -7686,7 +7712,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="44"/>
-      <c r="E4" s="49"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="42"/>
       <c r="G4" s="42"/>
       <c r="H4" s="44"/>
@@ -7700,7 +7726,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="43"/>
-      <c r="E5" s="48"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="43"/>
@@ -7712,7 +7738,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="44"/>
-      <c r="E6" s="49"/>
+      <c r="E6" s="53"/>
       <c r="F6" s="44"/>
       <c r="G6" s="44"/>
       <c r="H6" s="44"/>
@@ -7726,7 +7752,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="43"/>
-      <c r="E7" s="48"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="43"/>
@@ -7738,7 +7764,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="44"/>
-      <c r="E8" s="49"/>
+      <c r="E8" s="53"/>
       <c r="F8" s="44"/>
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
@@ -7752,7 +7778,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="43"/>
-      <c r="E9" s="48"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="43"/>
@@ -7764,7 +7790,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="44"/>
-      <c r="E10" s="49"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="44"/>
       <c r="G10" s="44"/>
       <c r="H10" s="44"/>
@@ -7778,7 +7804,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="43"/>
-      <c r="E11" s="48"/>
+      <c r="E11" s="52"/>
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="43"/>
@@ -7790,7 +7816,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="44"/>
-      <c r="E12" s="49"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="44"/>
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
@@ -7804,7 +7830,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="43"/>
-      <c r="E13" s="48"/>
+      <c r="E13" s="52"/>
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="43"/>
@@ -7816,7 +7842,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="44"/>
-      <c r="E14" s="49"/>
+      <c r="E14" s="53"/>
       <c r="F14" s="44"/>
       <c r="G14" s="44"/>
       <c r="H14" s="44"/>
@@ -7830,7 +7856,7 @@
         <v>30</v>
       </c>
       <c r="D15" s="43"/>
-      <c r="E15" s="48"/>
+      <c r="E15" s="52"/>
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="43"/>
@@ -7842,7 +7868,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="44"/>
-      <c r="E16" s="49"/>
+      <c r="E16" s="53"/>
       <c r="F16" s="44"/>
       <c r="G16" s="44"/>
       <c r="H16" s="44"/>
@@ -7856,7 +7882,7 @@
         <v>30</v>
       </c>
       <c r="D17" s="43"/>
-      <c r="E17" s="48"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="43"/>
@@ -7868,7 +7894,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="44"/>
-      <c r="E18" s="49"/>
+      <c r="E18" s="53"/>
       <c r="F18" s="44"/>
       <c r="G18" s="44"/>
       <c r="H18" s="44"/>
@@ -7882,7 +7908,7 @@
         <v>30</v>
       </c>
       <c r="D19" s="42"/>
-      <c r="E19" s="50"/>
+      <c r="E19" s="54"/>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
       <c r="H19" s="42"/>
@@ -7894,12 +7920,12 @@
         <v>10</v>
       </c>
       <c r="D20" s="44"/>
-      <c r="E20" s="49"/>
+      <c r="E20" s="53"/>
       <c r="F20" s="44"/>
       <c r="G20" s="44"/>
       <c r="H20" s="44"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:10">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -7908,10 +7934,11 @@
         <v>30</v>
       </c>
       <c r="D21" s="42"/>
-      <c r="E21" s="50"/>
+      <c r="E21" s="54"/>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
       <c r="H21" s="42"/>
+      <c r="J21" s="56"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3"/>
@@ -7920,39 +7947,65 @@
         <v>10</v>
       </c>
       <c r="D22" s="44"/>
-      <c r="E22" s="49"/>
+      <c r="E22" s="53"/>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
       <c r="H22" s="44"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="3"/>
+      <c r="A23" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="48"/>
       <c r="C23" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="50"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="53"/>
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
+      <c r="H23" s="44"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
+      <c r="A24" s="49"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-    </row>
-  </sheetData>
-  <mergeCells count="16">
+      <c r="D24" s="44"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="44"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="42"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="51"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:A10"/>
@@ -7969,6 +8022,7 @@
     <mergeCell ref="A11:B12"/>
     <mergeCell ref="A17:B18"/>
     <mergeCell ref="A23:B24"/>
+    <mergeCell ref="A25:B26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -7988,7 +8042,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8000,16 +8054,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8069,7 +8123,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8087,7 +8141,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -8116,7 +8170,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -8136,7 +8190,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -8166,7 +8220,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8178,16 +8232,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8247,7 +8301,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8265,7 +8319,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -8299,7 +8353,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -8309,30 +8363,30 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -8341,7 +8395,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B4" s="15" t="str">
         <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
@@ -8354,7 +8408,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B5" s="15" t="str">
         <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
@@ -8400,7 +8454,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8413,19 +8467,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8480,7 +8534,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -8490,30 +8544,30 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -8522,7 +8576,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B4" s="15" t="str">
         <f t="shared" ref="B4:B6" si="0">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
@@ -8535,7 +8589,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B5" s="15" t="str">
         <f t="shared" si="0"/>
@@ -8581,7 +8635,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8594,19 +8648,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8655,7 +8709,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8665,47 +8719,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -8715,7 +8769,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -8755,7 +8809,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8828,7 +8882,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8841,19 +8895,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8902,7 +8956,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8912,47 +8966,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -8962,7 +9016,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -9002,7 +9056,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9015,19 +9069,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9084,7 +9138,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9094,47 +9148,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -9144,7 +9198,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -9184,7 +9238,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9197,19 +9251,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9258,7 +9312,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9268,47 +9322,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -9318,7 +9372,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -9358,7 +9412,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9371,19 +9425,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9432,7 +9486,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9442,47 +9496,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -9492,7 +9546,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -9532,7 +9586,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9545,19 +9599,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9606,7 +9660,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9616,47 +9670,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -9666,7 +9720,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -9706,7 +9760,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9779,7 +9833,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9792,19 +9846,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9853,7 +9907,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9863,47 +9917,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -9913,7 +9967,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -9953,7 +10007,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9966,19 +10020,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10027,7 +10081,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10037,47 +10091,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -10087,7 +10141,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -10127,7 +10181,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10140,19 +10194,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10201,7 +10255,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10211,47 +10265,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -10261,7 +10315,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -10301,7 +10355,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10314,19 +10368,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10375,7 +10429,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10385,47 +10439,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -10435,7 +10489,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -10475,7 +10529,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10488,19 +10542,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10549,7 +10603,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10559,47 +10613,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -10609,7 +10663,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -10649,7 +10703,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10722,7 +10776,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10735,19 +10789,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10796,7 +10850,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10806,47 +10860,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -10856,7 +10910,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -10896,7 +10950,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10909,19 +10963,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10970,7 +11024,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10980,47 +11034,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -11030,7 +11084,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -11073,7 +11127,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11086,19 +11140,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -11161,7 +11215,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11171,40 +11225,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -11230,7 +11284,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11243,37 +11297,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -11299,7 +11353,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11309,40 +11363,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -11375,7 +11429,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11385,40 +11439,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -11444,7 +11498,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11457,37 +11511,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -11513,7 +11567,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11586,7 +11640,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11596,40 +11650,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -11660,7 +11714,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11670,40 +11724,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" ht="61" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -11729,7 +11783,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11742,37 +11796,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" ht="61" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -11798,7 +11852,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11808,40 +11862,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" ht="61" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -11867,7 +11921,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11877,40 +11931,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -11936,7 +11990,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11949,37 +12003,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -12005,7 +12059,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -12015,40 +12069,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -12074,7 +12128,7 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -12085,25 +12139,25 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -12183,7 +12237,7 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -12197,22 +12251,22 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -12237,7 +12291,7 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -12248,25 +12302,25 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
